--- a/trunk/Tools/Teams information.xlsx
+++ b/trunk/Tools/Teams information.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team2" sheetId="2" r:id="rId1"/>
@@ -206,9 +206,6 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -226,6 +223,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,33 +563,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -746,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -757,42 +760,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
@@ -805,7 +808,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -820,7 +823,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -833,7 +836,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -846,7 +849,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>7</v>
       </c>
       <c r="B7" s="1"/>
@@ -861,7 +864,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>8</v>
       </c>
       <c r="B8" s="1"/>
